--- a/excel_reports/Rebecca_Sublette.xlsx
+++ b/excel_reports/Rebecca_Sublette.xlsx
@@ -8,18 +8,293 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Core" sheetId="2" r:id="rId2"/>
+    <sheet name="Last Month NEW" sheetId="2" r:id="rId2"/>
+    <sheet name="Last Month CANCEL" sheetId="3" r:id="rId3"/>
+    <sheet name="Core" sheetId="4" r:id="rId4"/>
+    <sheet name="Dvh" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="199">
   <si>
     <t>Policy Record</t>
   </si>
   <si>
+    <t>Contact Recrod</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>Commission ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Plan Type</t>
+  </si>
+  <si>
+    <t>Date Actual Submission</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Date Actual Cancel</t>
+  </si>
+  <si>
+    <t>Date Notified Cancel</t>
+  </si>
+  <si>
+    <t>Cancellation Notes</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3168241175</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/258601</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Duran</t>
+  </si>
+  <si>
+    <t>AARP/UHC</t>
+  </si>
+  <si>
+    <t>200 - Issued</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>11-18-2020</t>
+  </si>
+  <si>
+    <t>12-01-2020</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3953416210</t>
+  </si>
+  <si>
+    <t>AARP</t>
+  </si>
+  <si>
+    <t>500 - Cancelled</t>
+  </si>
+  <si>
+    <t>Supplemental</t>
+  </si>
+  <si>
+    <t>11-15-2022</t>
+  </si>
+  <si>
+    <t>01-01-2023</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3166973830</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/1403151</t>
+  </si>
+  <si>
+    <t>Collette</t>
+  </si>
+  <si>
+    <t>Kilpatrick</t>
+  </si>
+  <si>
+    <t>480 - Cancelled</t>
+  </si>
+  <si>
+    <t>12-01-2021</t>
+  </si>
+  <si>
+    <t>01-01-2022</t>
+  </si>
+  <si>
+    <t>10-14-2021</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3929696159</t>
+  </si>
+  <si>
+    <t>11-16-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3173208106</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/15152201</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>A03540153</t>
+  </si>
+  <si>
+    <t>510 - Cancelled</t>
+  </si>
+  <si>
+    <t>05-04-2022</t>
+  </si>
+  <si>
+    <t>08-01-2022</t>
+  </si>
+  <si>
+    <t>11-30-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3969119617</t>
+  </si>
+  <si>
+    <t>11-18-2022</t>
+  </si>
+  <si>
+    <t>12-01-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3168673630</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/13143301</t>
+  </si>
+  <si>
+    <t>Maureen</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>04-28-2022</t>
+  </si>
+  <si>
+    <t>05-01-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4030631092</t>
+  </si>
+  <si>
+    <t>11-21-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3168411502</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/43451</t>
+  </si>
+  <si>
+    <t>Alain</t>
+  </si>
+  <si>
+    <t>Deroulette</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4045572982</t>
+  </si>
+  <si>
+    <t>AETNA</t>
+  </si>
+  <si>
+    <t>AHC6670701</t>
+  </si>
+  <si>
+    <t>11-22-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3173116928</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/6820651</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Eaton</t>
+  </si>
+  <si>
+    <t>AHC6555134</t>
+  </si>
+  <si>
+    <t>10-05-2021</t>
+  </si>
+  <si>
+    <t>11-01-2021</t>
+  </si>
+  <si>
+    <t>10-27-2021</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4053654961</t>
+  </si>
+  <si>
+    <t>AARP / UHICA</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4200350046</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/25177651</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>McCourt</t>
+  </si>
+  <si>
+    <t>11-29-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/4202695493</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/None</t>
+  </si>
+  <si>
+    <t>110 - Submitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Note: These are not all chargebacks. Some likely are, some likely aren't. We DO NOT add up your sales and then subtract the cancelations listed below.  Instead, we calculate your commission report based upon "Net New" Active clients.  This sheet is a reference only so you can see a list of all policies that were updated to a "canceled" status during the last month.
+</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3618387037</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/24044401</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Ochsner</t>
+  </si>
+  <si>
+    <t>11-01-2022</t>
+  </si>
+  <si>
     <t>Contact Record</t>
   </si>
   <si>
@@ -41,18 +316,12 @@
     <t>Agent Last</t>
   </si>
   <si>
-    <t>Carrier</t>
-  </si>
-  <si>
     <t>Plan</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Submitted</t>
   </si>
   <si>
@@ -68,9 +337,6 @@
     <t>Active?</t>
   </si>
   <si>
-    <t>Cancellation Notes</t>
-  </si>
-  <si>
     <t>Eligible for Residual</t>
   </si>
   <si>
@@ -86,46 +352,181 @@
     <t>MAP and Residual</t>
   </si>
   <si>
+    <t>3168411502</t>
+  </si>
+  <si>
+    <t>43451</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Hardin</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Walgreens</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>4045572982</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Sublette</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>3168241175</t>
+  </si>
+  <si>
+    <t>258601</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Choice PPO</t>
+  </si>
+  <si>
+    <t>3953416210</t>
+  </si>
+  <si>
+    <t>3173116928</t>
+  </si>
+  <si>
+    <t>6820651</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Oberle</t>
+  </si>
+  <si>
+    <t>4053654961</t>
+  </si>
+  <si>
+    <t>3166973830</t>
+  </si>
+  <si>
+    <t>1403151</t>
+  </si>
+  <si>
+    <t>Garrett</t>
+  </si>
+  <si>
+    <t>McKinzie</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage (HMO-POS)</t>
+  </si>
+  <si>
+    <t>3929696159</t>
+  </si>
+  <si>
+    <t>4200350046</t>
+  </si>
+  <si>
+    <t>25177651</t>
+  </si>
+  <si>
+    <t>3173208106</t>
+  </si>
+  <si>
+    <t>15152201</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>3969119617</t>
+  </si>
+  <si>
+    <t>3168673630</t>
+  </si>
+  <si>
+    <t>13143301</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage SecureHorizons Focus</t>
+  </si>
+  <si>
+    <t>4030631092</t>
+  </si>
+  <si>
+    <t>4202695493</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>AARP® Medicare Advantage Walgreens Plan 1 (PPO)</t>
+  </si>
+  <si>
     <t>3618387037</t>
   </si>
   <si>
     <t>24044401</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Ochsner</t>
-  </si>
-  <si>
-    <t>Adrian</t>
-  </si>
-  <si>
-    <t>Hardin</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Sublette</t>
-  </si>
-  <si>
-    <t>AETNA</t>
-  </si>
-  <si>
     <t>Aetna Medicare Assure Premier Prime (HMO D-SNP)</t>
   </si>
   <si>
-    <t>Advantage</t>
-  </si>
-  <si>
-    <t>500 - Cancelled</t>
-  </si>
-  <si>
-    <t>11-01-2022</t>
-  </si>
-  <si>
-    <t>False</t>
+    <t>3947194404</t>
+  </si>
+  <si>
+    <t>6601201</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>Musick</t>
+  </si>
+  <si>
+    <t>AMERITAS</t>
+  </si>
+  <si>
+    <t>PrimeStar® Total</t>
+  </si>
+  <si>
+    <t>dvh</t>
+  </si>
+  <si>
+    <t>11-17-2022</t>
+  </si>
+  <si>
+    <t>3904280212</t>
+  </si>
+  <si>
+    <t>4557801</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Smethurst</t>
+  </si>
+  <si>
+    <t>PrimeStar® Value</t>
   </si>
   <si>
     <t>Core Plans Summary</t>
@@ -215,7 +616,7 @@
     <t>Copay - Commission:</t>
   </si>
   <si>
-    <t>0</t>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -251,19 +652,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -285,12 +686,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -307,14 +708,20 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -622,35 +1029,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -659,7 +1066,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -667,30 +1074,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -699,41 +1106,41 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -742,22 +1149,28 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>188</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>189</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -765,7 +1178,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -774,7 +1187,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -783,17 +1196,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -801,7 +1214,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -810,7 +1223,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -824,150 +1237,1817 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="6" customWidth="1"/>
-    <col min="3" max="9" width="9.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="6" customWidth="1"/>
+    <col min="1" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="13" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="B6" r:id="rId8"/>
+    <hyperlink ref="A8" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId10"/>
+    <hyperlink ref="A9" r:id="rId11"/>
+    <hyperlink ref="B9" r:id="rId12"/>
+    <hyperlink ref="A11" r:id="rId13"/>
+    <hyperlink ref="B11" r:id="rId14"/>
+    <hyperlink ref="A12" r:id="rId15"/>
+    <hyperlink ref="B12" r:id="rId16"/>
+    <hyperlink ref="A14" r:id="rId17"/>
+    <hyperlink ref="B14" r:id="rId18"/>
+    <hyperlink ref="A15" r:id="rId19"/>
+    <hyperlink ref="B15" r:id="rId20"/>
+    <hyperlink ref="A17" r:id="rId21"/>
+    <hyperlink ref="B17" r:id="rId22"/>
+    <hyperlink ref="A18" r:id="rId23"/>
+    <hyperlink ref="B18" r:id="rId24"/>
+    <hyperlink ref="A20" r:id="rId25"/>
+    <hyperlink ref="B20" r:id="rId26"/>
+    <hyperlink ref="A22" r:id="rId27"/>
+    <hyperlink ref="B22" r:id="rId28"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="13" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="100" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="6" customWidth="1"/>
+    <col min="17" max="19" width="10.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="10" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="8" customWidth="1"/>
     <col min="21" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T5" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W5" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="E6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T9" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="J11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="9" t="s">
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="J20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
+        <v>84</v>
+      </c>
+      <c r="M22" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>36</v>
+      <c r="N24" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="B6" r:id="rId8"/>
+    <hyperlink ref="A8" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId10"/>
+    <hyperlink ref="A9" r:id="rId11"/>
+    <hyperlink ref="B9" r:id="rId12"/>
+    <hyperlink ref="A11" r:id="rId13"/>
+    <hyperlink ref="B11" r:id="rId14"/>
+    <hyperlink ref="A12" r:id="rId15"/>
+    <hyperlink ref="B12" r:id="rId16"/>
+    <hyperlink ref="A14" r:id="rId17"/>
+    <hyperlink ref="B14" r:id="rId18"/>
+    <hyperlink ref="A16" r:id="rId19"/>
+    <hyperlink ref="B16" r:id="rId20"/>
+    <hyperlink ref="A17" r:id="rId21"/>
+    <hyperlink ref="B17" r:id="rId22"/>
+    <hyperlink ref="A19" r:id="rId23"/>
+    <hyperlink ref="B19" r:id="rId24"/>
+    <hyperlink ref="A20" r:id="rId25"/>
+    <hyperlink ref="B20" r:id="rId26"/>
+    <hyperlink ref="A22" r:id="rId27"/>
+    <hyperlink ref="B22" r:id="rId28"/>
+    <hyperlink ref="A24" r:id="rId29"/>
+    <hyperlink ref="B24" r:id="rId30"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
+    <col min="11" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="19" width="10.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="10" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_reports/Rebecca_Sublette.xlsx
+++ b/excel_reports/Rebecca_Sublette.xlsx
@@ -8,209 +8,290 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Last Month NEW" sheetId="2" r:id="rId2"/>
-    <sheet name="Core" sheetId="3" r:id="rId3"/>
+    <sheet name="Core" sheetId="2" r:id="rId2"/>
+    <sheet name="Dvh" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
   <si>
     <t>Policy Record</t>
   </si>
   <si>
-    <t>Contact Recrod</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
+    <t>Contact Record</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>OA First</t>
+  </si>
+  <si>
+    <t>OA Last</t>
+  </si>
+  <si>
+    <t>Agent First</t>
+  </si>
+  <si>
+    <t>Agent Last</t>
   </si>
   <si>
     <t>Carrier</t>
   </si>
   <si>
-    <t>Commission ID</t>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Plan Type</t>
-  </si>
-  <si>
-    <t>Date Actual Submission</t>
-  </si>
-  <si>
-    <t>Effective Date</t>
-  </si>
-  <si>
-    <t>Date Actual Cancel</t>
-  </si>
-  <si>
-    <t>Date Notified Cancel</t>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Effective</t>
+  </si>
+  <si>
+    <t>Notified of Cancel</t>
+  </si>
+  <si>
+    <t>Term Date</t>
+  </si>
+  <si>
+    <t>Active?</t>
   </si>
   <si>
     <t>Cancellation Notes</t>
   </si>
   <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3168241175</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/258601</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>Duran</t>
+    <t>Eligible for Residual</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Commissionable?</t>
+  </si>
+  <si>
+    <t>MSP and Residual</t>
+  </si>
+  <si>
+    <t>MAP and Residual</t>
+  </si>
+  <si>
+    <t>3168411502</t>
+  </si>
+  <si>
+    <t>43451</t>
+  </si>
+  <si>
+    <t>Alain</t>
+  </si>
+  <si>
+    <t>Deroulette</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Hardin</t>
   </si>
   <si>
     <t>AARP/UHC</t>
   </si>
   <si>
+    <t>AARP Medicare Advantage Walgreens</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
     <t>200 - Issued</t>
   </si>
   <si>
-    <t>Advantage</t>
-  </si>
-  <si>
-    <t>11-18-2020</t>
-  </si>
-  <si>
-    <t>12-01-2020</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3953416210</t>
+    <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-01-2022</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>4045572982</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Sublette</t>
+  </si>
+  <si>
+    <t>AETNA</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Supplemental</t>
+  </si>
+  <si>
+    <t>11-22-2022</t>
+  </si>
+  <si>
+    <t>01-01-2023</t>
+  </si>
+  <si>
+    <t>3173116928</t>
+  </si>
+  <si>
+    <t>6820651</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Eaton</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Oberle</t>
+  </si>
+  <si>
+    <t>500 - Cancelled</t>
+  </si>
+  <si>
+    <t>10-05-2021</t>
+  </si>
+  <si>
+    <t>11-01-2021</t>
+  </si>
+  <si>
+    <t>10-27-2021</t>
+  </si>
+  <si>
+    <t>4053654961</t>
+  </si>
+  <si>
+    <t>AARP / UHICA</t>
+  </si>
+  <si>
+    <t>4200350046</t>
+  </si>
+  <si>
+    <t>25177651</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>McCourt</t>
   </si>
   <si>
     <t>AARP</t>
   </si>
   <si>
-    <t>500 - Cancelled</t>
-  </si>
-  <si>
-    <t>Supplemental</t>
+    <t>11-29-2022</t>
+  </si>
+  <si>
+    <t>3173208106</t>
+  </si>
+  <si>
+    <t>15152201</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>510 - Cancelled</t>
+  </si>
+  <si>
+    <t>05-04-2022</t>
+  </si>
+  <si>
+    <t>08-01-2022</t>
+  </si>
+  <si>
+    <t>11-30-2022</t>
+  </si>
+  <si>
+    <t>3969119617</t>
+  </si>
+  <si>
+    <t>11-18-2022</t>
+  </si>
+  <si>
+    <t>12-01-2022</t>
+  </si>
+  <si>
+    <t>3618387037</t>
+  </si>
+  <si>
+    <t>24044401</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Ochsner</t>
+  </si>
+  <si>
+    <t>Aetna Medicare Assure Premier Prime (HMO D-SNP)</t>
+  </si>
+  <si>
+    <t>11-01-2022</t>
+  </si>
+  <si>
+    <t>3904280212</t>
+  </si>
+  <si>
+    <t>4557801</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Smethurst</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>AMERITAS</t>
+  </si>
+  <si>
+    <t>PrimeStar® Value</t>
+  </si>
+  <si>
+    <t>dvh</t>
   </si>
   <si>
     <t>11-15-2022</t>
   </si>
   <si>
-    <t>01-01-2023</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4200350046</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/25177651</t>
-  </si>
-  <si>
-    <t>Timothy</t>
-  </si>
-  <si>
-    <t>McCourt</t>
-  </si>
-  <si>
-    <t>11-29-2022</t>
-  </si>
-  <si>
-    <t>Contact Record</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>OA First</t>
-  </si>
-  <si>
-    <t>OA Last</t>
-  </si>
-  <si>
-    <t>Agent First</t>
-  </si>
-  <si>
-    <t>Agent Last</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Submitted</t>
-  </si>
-  <si>
-    <t>Effective</t>
-  </si>
-  <si>
-    <t>Notified of Cancel</t>
-  </si>
-  <si>
-    <t>Term Date</t>
-  </si>
-  <si>
-    <t>Active?</t>
-  </si>
-  <si>
-    <t>Eligible for Residual</t>
-  </si>
-  <si>
-    <t>Residual</t>
-  </si>
-  <si>
-    <t>Commissionable?</t>
-  </si>
-  <si>
-    <t>MSP and Residual</t>
-  </si>
-  <si>
-    <t>MAP and Residual</t>
-  </si>
-  <si>
-    <t>3168241175</t>
-  </si>
-  <si>
-    <t>258601</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>AARP Medicare Advantage Choice PPO</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>3953416210</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Sublette</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>4200350046</t>
-  </si>
-  <si>
-    <t>25177651</t>
+    <t>11-16-2022</t>
   </si>
   <si>
     <t>Core Plans Summary</t>
@@ -336,19 +417,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -370,12 +451,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -392,17 +473,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -710,35 +788,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -747,7 +825,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -755,30 +833,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -787,20 +865,20 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -808,20 +886,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -830,22 +908,28 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>84</v>
+        <v>111</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -853,7 +937,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -862,7 +946,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -871,17 +955,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -889,7 +973,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -898,7 +982,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -912,155 +996,507 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="13" width="25.7109375" customWidth="1"/>
+    <col min="1" max="2" width="13.7109375" style="6" customWidth="1"/>
+    <col min="3" max="9" width="9.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="6" customWidth="1"/>
+    <col min="11" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="6" customWidth="1"/>
+    <col min="21" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="7" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="D3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="F13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1070,6 +1506,16 @@
     <hyperlink ref="B3" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="B6" r:id="rId8"/>
+    <hyperlink ref="A8" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId10"/>
+    <hyperlink ref="A10" r:id="rId11"/>
+    <hyperlink ref="B10" r:id="rId12"/>
+    <hyperlink ref="A11" r:id="rId13"/>
+    <hyperlink ref="B11" r:id="rId14"/>
+    <hyperlink ref="A13" r:id="rId15"/>
+    <hyperlink ref="B13" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1077,257 +1523,125 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
-    <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="13.7109375" style="6" customWidth="1"/>
+    <col min="3" max="9" width="9.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="6" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="19" width="10.7109375" style="8" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="8" customWidth="1"/>
-    <col min="21" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>56</v>
+      <c r="G2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="W2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="B5" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_reports/Rebecca_Sublette.xlsx
+++ b/excel_reports/Rebecca_Sublette.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
   <si>
     <t>Policy Record</t>
   </si>
@@ -87,28 +87,28 @@
     <t>MAP and Residual</t>
   </si>
   <si>
-    <t>3168411502</t>
-  </si>
-  <si>
-    <t>43451</t>
-  </si>
-  <si>
-    <t>Alain</t>
-  </si>
-  <si>
-    <t>Deroulette</t>
-  </si>
-  <si>
-    <t>Adrian</t>
-  </si>
-  <si>
-    <t>Hardin</t>
+    <t>3168241175</t>
+  </si>
+  <si>
+    <t>258601</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Duran</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Agent</t>
   </si>
   <si>
     <t>AARP/UHC</t>
   </si>
   <si>
-    <t>AARP Medicare Advantage Walgreens</t>
+    <t>AARP Medicare Advantage Choice PPO</t>
   </si>
   <si>
     <t>Advantage</t>
@@ -117,78 +117,45 @@
     <t>200 - Issued</t>
   </si>
   <si>
-    <t>01-06-2021</t>
-  </si>
-  <si>
-    <t>01-01-2022</t>
+    <t>11-18-2020</t>
+  </si>
+  <si>
+    <t>12-01-2020</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
+    <t>3953416210</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Sublette</t>
+  </si>
+  <si>
+    <t>AARP</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Supplemental</t>
+  </si>
+  <si>
+    <t>500 - Cancelled</t>
+  </si>
+  <si>
+    <t>11-15-2022</t>
+  </si>
+  <si>
+    <t>01-01-2023</t>
+  </si>
+  <si>
     <t>False</t>
   </si>
   <si>
-    <t>4045572982</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Sublette</t>
-  </si>
-  <si>
-    <t>AETNA</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Supplemental</t>
-  </si>
-  <si>
-    <t>11-22-2022</t>
-  </si>
-  <si>
-    <t>01-01-2023</t>
-  </si>
-  <si>
-    <t>3173116928</t>
-  </si>
-  <si>
-    <t>6820651</t>
-  </si>
-  <si>
-    <t>Patricia</t>
-  </si>
-  <si>
-    <t>Eaton</t>
-  </si>
-  <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t>Oberle</t>
-  </si>
-  <si>
-    <t>500 - Cancelled</t>
-  </si>
-  <si>
-    <t>10-05-2021</t>
-  </si>
-  <si>
-    <t>11-01-2021</t>
-  </si>
-  <si>
-    <t>10-27-2021</t>
-  </si>
-  <si>
-    <t>4053654961</t>
-  </si>
-  <si>
-    <t>AARP / UHICA</t>
-  </si>
-  <si>
     <t>4200350046</t>
   </si>
   <si>
@@ -201,64 +168,43 @@
     <t>McCourt</t>
   </si>
   <si>
-    <t>AARP</t>
-  </si>
-  <si>
     <t>11-29-2022</t>
   </si>
   <si>
-    <t>3173208106</t>
-  </si>
-  <si>
-    <t>15152201</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Mesa</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>510 - Cancelled</t>
-  </si>
-  <si>
-    <t>05-04-2022</t>
-  </si>
-  <si>
-    <t>08-01-2022</t>
-  </si>
-  <si>
-    <t>11-30-2022</t>
-  </si>
-  <si>
-    <t>3969119617</t>
-  </si>
-  <si>
-    <t>11-18-2022</t>
-  </si>
-  <si>
-    <t>12-01-2022</t>
-  </si>
-  <si>
-    <t>3618387037</t>
-  </si>
-  <si>
-    <t>24044401</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Ochsner</t>
-  </si>
-  <si>
-    <t>Aetna Medicare Assure Premier Prime (HMO D-SNP)</t>
-  </si>
-  <si>
-    <t>11-01-2022</t>
+    <t>3166973759</t>
+  </si>
+  <si>
+    <t>103901</t>
+  </si>
+  <si>
+    <t>LeAnn</t>
+  </si>
+  <si>
+    <t>Cochran</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Cano</t>
+  </si>
+  <si>
+    <t>HUMANA</t>
+  </si>
+  <si>
+    <t>Gold Plus HMO</t>
+  </si>
+  <si>
+    <t>03-01-2021</t>
+  </si>
+  <si>
+    <t>4202695493</t>
+  </si>
+  <si>
+    <t>AARP® Medicare Advantage Walgreens Plan 1 (PPO)</t>
+  </si>
+  <si>
+    <t>110 - Submitted</t>
   </si>
   <si>
     <t>3904280212</t>
@@ -273,12 +219,6 @@
     <t>Smethurst</t>
   </si>
   <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
     <t>AMERITAS</t>
   </si>
   <si>
@@ -288,9 +228,6 @@
     <t>dvh</t>
   </si>
   <si>
-    <t>11-15-2022</t>
-  </si>
-  <si>
     <t>11-16-2022</t>
   </si>
   <si>
@@ -381,7 +318,7 @@
     <t>Copay - Commission:</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -788,35 +725,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -825,7 +762,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -833,30 +770,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -865,12 +802,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -878,7 +815,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -886,20 +823,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -908,12 +845,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -921,7 +858,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -929,7 +866,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -937,7 +874,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -946,7 +883,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -955,17 +892,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -973,7 +910,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -982,7 +919,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -996,7 +933,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1130,12 +1067,18 @@
         <v>35</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="T2" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>24</v>
@@ -1147,10 +1090,10 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>27</v>
@@ -1159,16 +1102,16 @@
         <v>28</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" t="s">
         <v>41</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
       </c>
       <c r="M3" t="s">
         <v>43</v>
@@ -1177,160 +1120,148 @@
         <v>44</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
       <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="9" t="s">
+      <c r="S5" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="G7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
         <v>32</v>
       </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="6" t="s">
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W6" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
         <v>44</v>
@@ -1339,163 +1270,13 @@
         <v>35</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" t="s">
-        <v>71</v>
-      </c>
-      <c r="P10" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>36</v>
+      <c r="T8" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="W8" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1506,16 +1287,10 @@
     <hyperlink ref="B3" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="B5" r:id="rId6"/>
-    <hyperlink ref="A6" r:id="rId7"/>
-    <hyperlink ref="B6" r:id="rId8"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
     <hyperlink ref="A8" r:id="rId9"/>
     <hyperlink ref="B8" r:id="rId10"/>
-    <hyperlink ref="A10" r:id="rId11"/>
-    <hyperlink ref="B10" r:id="rId12"/>
-    <hyperlink ref="A11" r:id="rId13"/>
-    <hyperlink ref="B11" r:id="rId14"/>
-    <hyperlink ref="A13" r:id="rId15"/>
-    <hyperlink ref="B13" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1596,46 +1371,46 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="9" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/excel_reports/Rebecca_Sublette.xlsx
+++ b/excel_reports/Rebecca_Sublette.xlsx
@@ -8,19 +8,259 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Core" sheetId="2" r:id="rId2"/>
-    <sheet name="Dvh" sheetId="3" r:id="rId3"/>
+    <sheet name="Last Month NEW" sheetId="2" r:id="rId2"/>
+    <sheet name="Last Month CANCEL" sheetId="3" r:id="rId3"/>
+    <sheet name="Core" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="158">
   <si>
     <t>Policy Record</t>
   </si>
   <si>
+    <t>Contact Recrod</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>Commission ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Plan Type</t>
+  </si>
+  <si>
+    <t>Date Actual Submission</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Date Actual Cancel</t>
+  </si>
+  <si>
+    <t>Date Notified Cancel</t>
+  </si>
+  <si>
+    <t>Cancellation Notes</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3173208106</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/15152201</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>AARP</t>
+  </si>
+  <si>
+    <t>A03540153</t>
+  </si>
+  <si>
+    <t>510 - Cancelled</t>
+  </si>
+  <si>
+    <t>Supplemental</t>
+  </si>
+  <si>
+    <t>05-04-2022</t>
+  </si>
+  <si>
+    <t>08-01-2022</t>
+  </si>
+  <si>
+    <t>11-30-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3969119617</t>
+  </si>
+  <si>
+    <t>200 - Issued</t>
+  </si>
+  <si>
+    <t>11-18-2022</t>
+  </si>
+  <si>
+    <t>12-01-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3173116928</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/6820651</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Eaton</t>
+  </si>
+  <si>
+    <t>AETNA</t>
+  </si>
+  <si>
+    <t>AHC6555134</t>
+  </si>
+  <si>
+    <t>500 - Cancelled</t>
+  </si>
+  <si>
+    <t>10-05-2021</t>
+  </si>
+  <si>
+    <t>11-01-2021</t>
+  </si>
+  <si>
+    <t>10-27-2021</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4053654961</t>
+  </si>
+  <si>
+    <t>AARP / UHICA</t>
+  </si>
+  <si>
+    <t>11-22-2022</t>
+  </si>
+  <si>
+    <t>01-01-2023</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4200350046</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/25177651</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>McCourt</t>
+  </si>
+  <si>
+    <t>11-29-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4247062612</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/25210351</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>O'Brien</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4286117152</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/25382751</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>Jolliff</t>
+  </si>
+  <si>
+    <t>12-03-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4326329992</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/19488201</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Mahaffey</t>
+  </si>
+  <si>
+    <t>110 - Submitted</t>
+  </si>
+  <si>
+    <t>12-05-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4368158064</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/25419501</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Alison Rogers</t>
+  </si>
+  <si>
+    <t>12-07-2022</t>
+  </si>
+  <si>
+    <t>02-01-2023</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4343157005</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/25203151</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>330 - Pending</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/4368001459</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/25422251</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>McClain</t>
+  </si>
+  <si>
+    <t>AARP/UHC</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Note: These are not all chargebacks. Some likely are, some likely aren't. We DO NOT add up your sales and then subtract the cancelations listed below.  Instead, we calculate your commission report based upon "Net New" Active clients.  This sheet is a reference only so you can see a list of all policies that were updated to a "canceled" status during the last month.
+</t>
+  </si>
+  <si>
     <t>Contact Record</t>
   </si>
   <si>
@@ -42,18 +282,12 @@
     <t>Agent Last</t>
   </si>
   <si>
-    <t>Carrier</t>
-  </si>
-  <si>
     <t>Plan</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Submitted</t>
   </si>
   <si>
@@ -69,9 +303,6 @@
     <t>Active?</t>
   </si>
   <si>
-    <t>Cancellation Notes</t>
-  </si>
-  <si>
     <t>Eligible for Residual</t>
   </si>
   <si>
@@ -87,73 +318,52 @@
     <t>MAP and Residual</t>
   </si>
   <si>
-    <t>3168241175</t>
-  </si>
-  <si>
-    <t>258601</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>Duran</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>AARP/UHC</t>
-  </si>
-  <si>
-    <t>AARP Medicare Advantage Choice PPO</t>
-  </si>
-  <si>
-    <t>Advantage</t>
-  </si>
-  <si>
-    <t>200 - Issued</t>
-  </si>
-  <si>
-    <t>11-18-2020</t>
-  </si>
-  <si>
-    <t>12-01-2020</t>
+    <t>4368158064</t>
+  </si>
+  <si>
+    <t>25419501</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Sublette</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>3173116928</t>
+  </si>
+  <si>
+    <t>6820651</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Oberle</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>3953416210</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Sublette</t>
-  </si>
-  <si>
-    <t>AARP</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Supplemental</t>
-  </si>
-  <si>
-    <t>500 - Cancelled</t>
-  </si>
-  <si>
-    <t>11-15-2022</t>
-  </si>
-  <si>
-    <t>01-01-2023</t>
-  </si>
-  <si>
-    <t>False</t>
+    <t>4053654961</t>
+  </si>
+  <si>
+    <t>4286117152</t>
+  </si>
+  <si>
+    <t>25382751</t>
+  </si>
+  <si>
+    <t>4326329992</t>
+  </si>
+  <si>
+    <t>19488201</t>
   </si>
   <si>
     <t>4200350046</t>
@@ -162,73 +372,37 @@
     <t>25177651</t>
   </si>
   <si>
-    <t>Timothy</t>
-  </si>
-  <si>
-    <t>McCourt</t>
-  </si>
-  <si>
-    <t>11-29-2022</t>
-  </si>
-  <si>
-    <t>3166973759</t>
-  </si>
-  <si>
-    <t>103901</t>
-  </si>
-  <si>
-    <t>LeAnn</t>
-  </si>
-  <si>
-    <t>Cochran</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Cano</t>
-  </si>
-  <si>
-    <t>HUMANA</t>
-  </si>
-  <si>
-    <t>Gold Plus HMO</t>
-  </si>
-  <si>
-    <t>03-01-2021</t>
-  </si>
-  <si>
-    <t>4202695493</t>
-  </si>
-  <si>
-    <t>AARP® Medicare Advantage Walgreens Plan 1 (PPO)</t>
-  </si>
-  <si>
-    <t>110 - Submitted</t>
-  </si>
-  <si>
-    <t>3904280212</t>
-  </si>
-  <si>
-    <t>4557801</t>
-  </si>
-  <si>
-    <t>Barbara</t>
-  </si>
-  <si>
-    <t>Smethurst</t>
-  </si>
-  <si>
-    <t>AMERITAS</t>
-  </si>
-  <si>
-    <t>PrimeStar® Value</t>
-  </si>
-  <si>
-    <t>dvh</t>
-  </si>
-  <si>
-    <t>11-16-2022</t>
+    <t>3173208106</t>
+  </si>
+  <si>
+    <t>15152201</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>3969119617</t>
+  </si>
+  <si>
+    <t>4247062612</t>
+  </si>
+  <si>
+    <t>25210351</t>
+  </si>
+  <si>
+    <t>4343157005</t>
+  </si>
+  <si>
+    <t>25203151</t>
+  </si>
+  <si>
+    <t>4368001459</t>
+  </si>
+  <si>
+    <t>25422251</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Choice (PPO)</t>
   </si>
   <si>
     <t>Core Plans Summary</t>
@@ -318,7 +492,7 @@
     <t>Copay - Commission:</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -354,19 +528,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,12 +562,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -410,14 +584,20 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -725,35 +905,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -762,7 +942,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -770,30 +950,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -802,41 +982,41 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -845,28 +1025,22 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -874,7 +1048,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -883,7 +1057,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -892,17 +1066,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -910,7 +1084,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -919,7 +1093,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -933,351 +1107,429 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="6" customWidth="1"/>
-    <col min="3" max="9" width="9.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="6" customWidth="1"/>
-    <col min="11" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="6" customWidth="1"/>
-    <col min="21" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="13" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="L2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="J10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="H12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="W8" t="b">
-        <v>1</v>
-      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1287,10 +1539,22 @@
     <hyperlink ref="B3" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="B5" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId7"/>
+    <hyperlink ref="B6" r:id="rId8"/>
     <hyperlink ref="A8" r:id="rId9"/>
     <hyperlink ref="B8" r:id="rId10"/>
+    <hyperlink ref="A10" r:id="rId11"/>
+    <hyperlink ref="B10" r:id="rId12"/>
+    <hyperlink ref="A12" r:id="rId13"/>
+    <hyperlink ref="B12" r:id="rId14"/>
+    <hyperlink ref="A14" r:id="rId15"/>
+    <hyperlink ref="B14" r:id="rId16"/>
+    <hyperlink ref="A16" r:id="rId17"/>
+    <hyperlink ref="B16" r:id="rId18"/>
+    <hyperlink ref="A18" r:id="rId19"/>
+    <hyperlink ref="B18" r:id="rId20"/>
+    <hyperlink ref="A20" r:id="rId21"/>
+    <hyperlink ref="B20" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1298,125 +1562,821 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="6" customWidth="1"/>
-    <col min="3" max="9" width="9.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="6" customWidth="1"/>
-    <col min="11" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="6" customWidth="1"/>
+    <col min="1" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="13" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" ht="100" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
+    <col min="11" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="19" width="10.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="10" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="8" customWidth="1"/>
+    <col min="21" max="23" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="T5" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="Q14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>70</v>
+      <c r="Q18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="B9" r:id="rId10"/>
+    <hyperlink ref="A11" r:id="rId11"/>
+    <hyperlink ref="B11" r:id="rId12"/>
+    <hyperlink ref="A13" r:id="rId13"/>
+    <hyperlink ref="B13" r:id="rId14"/>
+    <hyperlink ref="A14" r:id="rId15"/>
+    <hyperlink ref="B14" r:id="rId16"/>
+    <hyperlink ref="A16" r:id="rId17"/>
+    <hyperlink ref="B16" r:id="rId18"/>
+    <hyperlink ref="A18" r:id="rId19"/>
+    <hyperlink ref="B18" r:id="rId20"/>
+    <hyperlink ref="A20" r:id="rId21"/>
+    <hyperlink ref="B20" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_reports/Rebecca_Sublette.xlsx
+++ b/excel_reports/Rebecca_Sublette.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Last Month NEW" sheetId="2" r:id="rId2"/>
     <sheet name="Last Month CANCEL" sheetId="3" r:id="rId3"/>
     <sheet name="Core" sheetId="4" r:id="rId4"/>
+    <sheet name="Dvh" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="170">
   <si>
     <t>Policy Record</t>
   </si>
@@ -58,91 +59,88 @@
     <t>Cancellation Notes</t>
   </si>
   <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3173208106</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/15152201</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Mesa</t>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3168241175</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/258601</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Duran</t>
+  </si>
+  <si>
+    <t>AARP/UHC</t>
+  </si>
+  <si>
+    <t>200 - Issued</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>11-18-2020</t>
+  </si>
+  <si>
+    <t>12-01-2020</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3953416210</t>
   </si>
   <si>
     <t>AARP</t>
   </si>
   <si>
-    <t>A03540153</t>
-  </si>
-  <si>
-    <t>510 - Cancelled</t>
+    <t>500 - Cancelled</t>
   </si>
   <si>
     <t>Supplemental</t>
   </si>
   <si>
-    <t>05-04-2022</t>
-  </si>
-  <si>
-    <t>08-01-2022</t>
+    <t>11-15-2022</t>
+  </si>
+  <si>
+    <t>01-01-2023</t>
+  </si>
+  <si>
+    <t>11-17-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3168411502</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/43451</t>
+  </si>
+  <si>
+    <t>Alain</t>
+  </si>
+  <si>
+    <t>Deroulette</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-01-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4045572982</t>
+  </si>
+  <si>
+    <t>AETNA</t>
+  </si>
+  <si>
+    <t>AHC6670701</t>
+  </si>
+  <si>
+    <t>11-22-2022</t>
   </si>
   <si>
     <t>11-30-2022</t>
   </si>
   <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3969119617</t>
-  </si>
-  <si>
-    <t>200 - Issued</t>
-  </si>
-  <si>
-    <t>11-18-2022</t>
-  </si>
-  <si>
-    <t>12-01-2022</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3173116928</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/6820651</t>
-  </si>
-  <si>
-    <t>Patricia</t>
-  </si>
-  <si>
-    <t>Eaton</t>
-  </si>
-  <si>
-    <t>AETNA</t>
-  </si>
-  <si>
-    <t>AHC6555134</t>
-  </si>
-  <si>
-    <t>500 - Cancelled</t>
-  </si>
-  <si>
-    <t>10-05-2021</t>
-  </si>
-  <si>
-    <t>11-01-2021</t>
-  </si>
-  <si>
-    <t>10-27-2021</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4053654961</t>
-  </si>
-  <si>
-    <t>AARP / UHICA</t>
-  </si>
-  <si>
-    <t>11-22-2022</t>
-  </si>
-  <si>
-    <t>01-01-2023</t>
+    <t>12-09-2022</t>
   </si>
   <si>
     <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4200350046</t>
@@ -158,102 +156,6 @@
   </si>
   <si>
     <t>11-29-2022</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4247062612</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/25210351</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>O'Brien</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4286117152</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/25382751</t>
-  </si>
-  <si>
-    <t>Pamela</t>
-  </si>
-  <si>
-    <t>Jolliff</t>
-  </si>
-  <si>
-    <t>12-03-2022</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4326329992</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/19488201</t>
-  </si>
-  <si>
-    <t>Dani</t>
-  </si>
-  <si>
-    <t>Mahaffey</t>
-  </si>
-  <si>
-    <t>110 - Submitted</t>
-  </si>
-  <si>
-    <t>12-05-2022</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4368158064</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/25419501</t>
-  </si>
-  <si>
-    <t>Teresa</t>
-  </si>
-  <si>
-    <t>Alison Rogers</t>
-  </si>
-  <si>
-    <t>12-07-2022</t>
-  </si>
-  <si>
-    <t>02-01-2023</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4343157005</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/25203151</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>330 - Pending</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/4368001459</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/25422251</t>
-  </si>
-  <si>
-    <t>Sharon</t>
-  </si>
-  <si>
-    <t>McClain</t>
-  </si>
-  <si>
-    <t>AARP/UHC</t>
-  </si>
-  <si>
-    <t>Advantage</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -261,6 +163,21 @@
 </t>
   </si>
   <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3618387037</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/24044401</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Ochsner</t>
+  </si>
+  <si>
+    <t>11-01-2022</t>
+  </si>
+  <si>
     <t>Contact Record</t>
   </si>
   <si>
@@ -324,6 +241,12 @@
     <t>25419501</t>
   </si>
   <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Alison Rogers</t>
+  </si>
+  <si>
     <t>Rebecca</t>
   </si>
   <si>
@@ -333,25 +256,73 @@
     <t>G</t>
   </si>
   <si>
+    <t>110 - Submitted</t>
+  </si>
+  <si>
+    <t>12-07-2022</t>
+  </si>
+  <si>
+    <t>02-01-2023</t>
+  </si>
+  <si>
     <t>False</t>
   </si>
   <si>
-    <t>3173116928</t>
-  </si>
-  <si>
-    <t>6820651</t>
-  </si>
-  <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t>Oberle</t>
+    <t>4366964484</t>
+  </si>
+  <si>
+    <t>7736351</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Conlon</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
+    <t>Scalzo</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>4053654961</t>
+    <t>3168411502</t>
+  </si>
+  <si>
+    <t>43451</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Hardin</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Walgreens</t>
+  </si>
+  <si>
+    <t>4045572982</t>
+  </si>
+  <si>
+    <t>3168241175</t>
+  </si>
+  <si>
+    <t>258601</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Choice PPO</t>
+  </si>
+  <si>
+    <t>3953416210</t>
   </si>
   <si>
     <t>4286117152</t>
@@ -360,51 +331,120 @@
     <t>25382751</t>
   </si>
   <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>Jolliff</t>
+  </si>
+  <si>
+    <t>12-03-2022</t>
+  </si>
+  <si>
     <t>4326329992</t>
   </si>
   <si>
     <t>19488201</t>
   </si>
   <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Mahaffey</t>
+  </si>
+  <si>
+    <t>12-05-2022</t>
+  </si>
+  <si>
     <t>4200350046</t>
   </si>
   <si>
     <t>25177651</t>
   </si>
   <si>
-    <t>3173208106</t>
-  </si>
-  <si>
-    <t>15152201</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>3969119617</t>
-  </si>
-  <si>
     <t>4247062612</t>
   </si>
   <si>
     <t>25210351</t>
   </si>
   <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>O'Brien</t>
+  </si>
+  <si>
+    <t>12-01-2022</t>
+  </si>
+  <si>
     <t>4343157005</t>
   </si>
   <si>
     <t>25203151</t>
   </si>
   <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>330 - Pending</t>
+  </si>
+  <si>
     <t>4368001459</t>
   </si>
   <si>
     <t>25422251</t>
   </si>
   <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>McClain</t>
+  </si>
+  <si>
     <t>AARP Medicare Advantage Choice (PPO)</t>
   </si>
   <si>
+    <t>3618387037</t>
+  </si>
+  <si>
+    <t>24044401</t>
+  </si>
+  <si>
+    <t>Aetna Medicare Assure Premier Prime (HMO D-SNP)</t>
+  </si>
+  <si>
+    <t>3947194404</t>
+  </si>
+  <si>
+    <t>6601201</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>Musick</t>
+  </si>
+  <si>
+    <t>AMERITAS</t>
+  </si>
+  <si>
+    <t>PrimeStar® Total</t>
+  </si>
+  <si>
+    <t>dvh</t>
+  </si>
+  <si>
+    <t>11-18-2022</t>
+  </si>
+  <si>
     <t>Core Plans Summary</t>
   </si>
   <si>
@@ -445,9 +485,6 @@
   </si>
   <si>
     <t>Total Core Plan Submissions Last Month</t>
-  </si>
-  <si>
-    <t>Core Plan Cancelations Posted Last Month</t>
   </si>
   <si>
     <t>Residuals</t>
@@ -905,35 +942,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -942,7 +979,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -950,30 +987,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -982,41 +1019,33 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -1025,22 +1054,28 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1048,7 +1083,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -1057,7 +1092,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -1066,17 +1101,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1084,7 +1119,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -1093,7 +1128,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -1107,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1174,32 +1209,26 @@
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>14</v>
@@ -1211,14 +1240,14 @@
         <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>26</v>
@@ -1226,310 +1255,118 @@
       <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="K3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="M3" s="8"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="J6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="I8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1543,18 +1380,6 @@
     <hyperlink ref="B6" r:id="rId8"/>
     <hyperlink ref="A8" r:id="rId9"/>
     <hyperlink ref="B8" r:id="rId10"/>
-    <hyperlink ref="A10" r:id="rId11"/>
-    <hyperlink ref="B10" r:id="rId12"/>
-    <hyperlink ref="A12" r:id="rId13"/>
-    <hyperlink ref="B12" r:id="rId14"/>
-    <hyperlink ref="A14" r:id="rId15"/>
-    <hyperlink ref="B14" r:id="rId16"/>
-    <hyperlink ref="A16" r:id="rId17"/>
-    <hyperlink ref="B16" r:id="rId18"/>
-    <hyperlink ref="A18" r:id="rId19"/>
-    <hyperlink ref="B18" r:id="rId20"/>
-    <hyperlink ref="A20" r:id="rId21"/>
-    <hyperlink ref="B20" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1562,7 +1387,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1574,7 +1399,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="100" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1638,32 +1463,26 @@
       <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>14</v>
@@ -1675,14 +1494,14 @@
         <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>26</v>
@@ -1690,9 +1509,120 @@
       <c r="J4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="M4" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1703,6 +1633,12 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="B9" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1710,7 +1646,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1731,626 +1667,735 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="7" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="E6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
         <v>34</v>
       </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="T5" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="W5" t="b">
-        <v>1</v>
+      <c r="Q6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="N7" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" t="s">
+        <v>39</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="E12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s">
         <v>25</v>
       </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>109</v>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="7" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" t="s">
         <v>27</v>
       </c>
-      <c r="N16" t="s">
-        <v>41</v>
-      </c>
       <c r="Q16" s="8" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="M18" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="N18" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="8" t="s">
+      <c r="G22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K20" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>104</v>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2359,16 +2404,16 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="B7" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="B9" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="B11" r:id="rId12"/>
-    <hyperlink ref="A13" r:id="rId13"/>
-    <hyperlink ref="B13" r:id="rId14"/>
+    <hyperlink ref="A10" r:id="rId11"/>
+    <hyperlink ref="B10" r:id="rId12"/>
+    <hyperlink ref="A12" r:id="rId13"/>
+    <hyperlink ref="B12" r:id="rId14"/>
     <hyperlink ref="A14" r:id="rId15"/>
     <hyperlink ref="B14" r:id="rId16"/>
     <hyperlink ref="A16" r:id="rId17"/>
@@ -2377,6 +2422,136 @@
     <hyperlink ref="B18" r:id="rId20"/>
     <hyperlink ref="A20" r:id="rId21"/>
     <hyperlink ref="B20" r:id="rId22"/>
+    <hyperlink ref="A22" r:id="rId23"/>
+    <hyperlink ref="B22" r:id="rId24"/>
+    <hyperlink ref="A24" r:id="rId25"/>
+    <hyperlink ref="B24" r:id="rId26"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
+    <col min="11" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="19" width="10.7109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="10" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel_reports/Rebecca_Sublette.xlsx
+++ b/excel_reports/Rebecca_Sublette.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="175">
   <si>
     <t>Policy Record</t>
   </si>
@@ -107,40 +107,58 @@
     <t>11-17-2022</t>
   </si>
   <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3168411502</t>
-  </si>
-  <si>
-    <t>https://app.hubspot.com/contacts/7879306/contact/43451</t>
-  </si>
-  <si>
-    <t>Alain</t>
-  </si>
-  <si>
-    <t>Deroulette</t>
-  </si>
-  <si>
-    <t>01-06-2021</t>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3166973830</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/1403151</t>
+  </si>
+  <si>
+    <t>Collette</t>
+  </si>
+  <si>
+    <t>Kilpatrick</t>
+  </si>
+  <si>
+    <t>480 - Cancelled</t>
+  </si>
+  <si>
+    <t>12-01-2021</t>
   </si>
   <si>
     <t>01-01-2022</t>
   </si>
   <si>
-    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4045572982</t>
-  </si>
-  <si>
-    <t>AETNA</t>
-  </si>
-  <si>
-    <t>AHC6670701</t>
-  </si>
-  <si>
-    <t>11-22-2022</t>
-  </si>
-  <si>
-    <t>11-30-2022</t>
-  </si>
-  <si>
-    <t>12-09-2022</t>
+    <t>10-14-2021</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3929696159</t>
+  </si>
+  <si>
+    <t>11-16-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3168673630</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/13143301</t>
+  </si>
+  <si>
+    <t>Maureen</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>04-28-2022</t>
+  </si>
+  <si>
+    <t>05-01-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4030631092</t>
+  </si>
+  <si>
+    <t>11-21-2022</t>
   </si>
   <si>
     <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4200350046</t>
@@ -175,6 +193,9 @@
     <t>Ochsner</t>
   </si>
   <si>
+    <t>AETNA</t>
+  </si>
+  <si>
     <t>11-01-2022</t>
   </si>
   <si>
@@ -268,31 +289,142 @@
     <t>False</t>
   </si>
   <si>
-    <t>4366964484</t>
-  </si>
-  <si>
-    <t>7736351</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Conlon</t>
-  </si>
-  <si>
-    <t>Pete</t>
-  </si>
-  <si>
-    <t>Scalzo</t>
+    <t>3168241175</t>
+  </si>
+  <si>
+    <t>258601</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Choice PPO</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>3168411502</t>
-  </si>
-  <si>
-    <t>43451</t>
+    <t>3953416210</t>
+  </si>
+  <si>
+    <t>4286117152</t>
+  </si>
+  <si>
+    <t>25382751</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>Jolliff</t>
+  </si>
+  <si>
+    <t>12-03-2022</t>
+  </si>
+  <si>
+    <t>3166973830</t>
+  </si>
+  <si>
+    <t>1403151</t>
+  </si>
+  <si>
+    <t>Garrett</t>
+  </si>
+  <si>
+    <t>McKinzie</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage (HMO-POS)</t>
+  </si>
+  <si>
+    <t>3929696159</t>
+  </si>
+  <si>
+    <t>4326329992</t>
+  </si>
+  <si>
+    <t>19488201</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Mahaffey</t>
+  </si>
+  <si>
+    <t>12-05-2022</t>
+  </si>
+  <si>
+    <t>4200350046</t>
+  </si>
+  <si>
+    <t>25177651</t>
+  </si>
+  <si>
+    <t>3168673630</t>
+  </si>
+  <si>
+    <t>13143301</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage SecureHorizons Focus</t>
+  </si>
+  <si>
+    <t>4030631092</t>
+  </si>
+  <si>
+    <t>4247062612</t>
+  </si>
+  <si>
+    <t>25210351</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>O'Brien</t>
+  </si>
+  <si>
+    <t>12-01-2022</t>
+  </si>
+  <si>
+    <t>4343157005</t>
+  </si>
+  <si>
+    <t>25203151</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>330 - Pending</t>
+  </si>
+  <si>
+    <t>4368001459</t>
+  </si>
+  <si>
+    <t>25422251</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>McClain</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Choice (PPO)</t>
+  </si>
+  <si>
+    <t>3618387037</t>
+  </si>
+  <si>
+    <t>24044401</t>
   </si>
   <si>
     <t>Adrian</t>
@@ -301,136 +433,19 @@
     <t>Hardin</t>
   </si>
   <si>
-    <t>AARP Medicare Advantage Walgreens</t>
-  </si>
-  <si>
-    <t>4045572982</t>
-  </si>
-  <si>
-    <t>3168241175</t>
-  </si>
-  <si>
-    <t>258601</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>AARP Medicare Advantage Choice PPO</t>
-  </si>
-  <si>
-    <t>3953416210</t>
-  </si>
-  <si>
-    <t>4286117152</t>
-  </si>
-  <si>
-    <t>25382751</t>
-  </si>
-  <si>
-    <t>Pamela</t>
-  </si>
-  <si>
-    <t>Jolliff</t>
-  </si>
-  <si>
-    <t>12-03-2022</t>
-  </si>
-  <si>
-    <t>4326329992</t>
-  </si>
-  <si>
-    <t>19488201</t>
-  </si>
-  <si>
-    <t>Dani</t>
-  </si>
-  <si>
-    <t>Mahaffey</t>
-  </si>
-  <si>
-    <t>12-05-2022</t>
-  </si>
-  <si>
-    <t>4200350046</t>
-  </si>
-  <si>
-    <t>25177651</t>
-  </si>
-  <si>
-    <t>4247062612</t>
-  </si>
-  <si>
-    <t>25210351</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>O'Brien</t>
-  </si>
-  <si>
-    <t>12-01-2022</t>
-  </si>
-  <si>
-    <t>4343157005</t>
-  </si>
-  <si>
-    <t>25203151</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>330 - Pending</t>
-  </si>
-  <si>
-    <t>4368001459</t>
-  </si>
-  <si>
-    <t>25422251</t>
-  </si>
-  <si>
-    <t>Sharon</t>
-  </si>
-  <si>
-    <t>McClain</t>
-  </si>
-  <si>
-    <t>AARP Medicare Advantage Choice (PPO)</t>
-  </si>
-  <si>
-    <t>3618387037</t>
-  </si>
-  <si>
-    <t>24044401</t>
-  </si>
-  <si>
     <t>Aetna Medicare Assure Premier Prime (HMO D-SNP)</t>
   </si>
   <si>
-    <t>3947194404</t>
-  </si>
-  <si>
-    <t>6601201</t>
-  </si>
-  <si>
-    <t>Sidney</t>
-  </si>
-  <si>
-    <t>Mitchell</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>Musick</t>
+    <t>4322813499</t>
+  </si>
+  <si>
+    <t>13300203</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Lewis</t>
   </si>
   <si>
     <t>AMERITAS</t>
@@ -442,7 +457,7 @@
     <t>dvh</t>
   </si>
   <si>
-    <t>11-18-2022</t>
+    <t>01-30-2023</t>
   </si>
   <si>
     <t>Core Plans Summary</t>
@@ -942,35 +957,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -979,7 +994,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -987,30 +1002,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -1019,33 +1034,33 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -1054,12 +1069,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1067,15 +1082,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1083,7 +1098,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -1092,7 +1107,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -1101,17 +1116,17 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1119,7 +1134,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -1128,7 +1143,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -1142,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1281,24 +1296,28 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>30</v>
@@ -1310,13 +1329,11 @@
         <v>32</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>25</v>
@@ -1327,46 +1344,108 @@
       <c r="J6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1380,6 +1459,10 @@
     <hyperlink ref="B6" r:id="rId8"/>
     <hyperlink ref="A8" r:id="rId9"/>
     <hyperlink ref="B8" r:id="rId10"/>
+    <hyperlink ref="A9" r:id="rId11"/>
+    <hyperlink ref="B9" r:id="rId12"/>
+    <hyperlink ref="A11" r:id="rId13"/>
+    <hyperlink ref="B11" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1387,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1482,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="100" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1519,110 +1602,38 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1635,10 +1646,6 @@
     <hyperlink ref="B4" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
     <hyperlink ref="B6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
-    <hyperlink ref="B7" r:id="rId8"/>
-    <hyperlink ref="A9" r:id="rId9"/>
-    <hyperlink ref="B9" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1646,7 +1653,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1667,320 +1674,332 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="8" t="s">
+      <c r="S5" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="N7" t="s">
         <v>27</v>
       </c>
-      <c r="O7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" t="s">
-        <v>39</v>
-      </c>
       <c r="Q7" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
       </c>
       <c r="Q9" s="8" t="s">
         <v>88</v>
@@ -1988,414 +2007,452 @@
       <c r="S9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="T9" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="W9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N10" t="s">
         <v>27</v>
       </c>
-      <c r="O10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
       <c r="Q10" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="M12" t="s">
-        <v>105</v>
-      </c>
-      <c r="N12" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="Q12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="S12" s="10" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>110</v>
+        <v>51</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>81</v>
+        <v>94</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="S17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="S16" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="8" t="s">
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" t="s">
         <v>25</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" t="s">
         <v>18</v>
       </c>
-      <c r="M18" t="s">
-        <v>117</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="M19" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="S18" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="8" t="s">
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" t="s">
         <v>25</v>
       </c>
-      <c r="L20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" t="s">
-        <v>79</v>
-      </c>
-      <c r="N20" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="L21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="J23" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" t="s">
         <v>19</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L23" t="s">
         <v>18</v>
       </c>
-      <c r="M22" t="s">
-        <v>79</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="M23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="S23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="S22" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="K24" t="s">
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" t="s">
         <v>19</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L25" t="s">
         <v>24</v>
       </c>
-      <c r="N24" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" t="s">
-        <v>51</v>
-      </c>
-      <c r="P24" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>81</v>
+      <c r="N25" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2404,8 +2461,8 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
     <hyperlink ref="A7" r:id="rId7"/>
     <hyperlink ref="B7" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
@@ -2418,14 +2475,16 @@
     <hyperlink ref="B14" r:id="rId16"/>
     <hyperlink ref="A16" r:id="rId17"/>
     <hyperlink ref="B16" r:id="rId18"/>
-    <hyperlink ref="A18" r:id="rId19"/>
-    <hyperlink ref="B18" r:id="rId20"/>
-    <hyperlink ref="A20" r:id="rId21"/>
-    <hyperlink ref="B20" r:id="rId22"/>
-    <hyperlink ref="A22" r:id="rId23"/>
-    <hyperlink ref="B22" r:id="rId24"/>
-    <hyperlink ref="A24" r:id="rId25"/>
-    <hyperlink ref="B24" r:id="rId26"/>
+    <hyperlink ref="A17" r:id="rId19"/>
+    <hyperlink ref="B17" r:id="rId20"/>
+    <hyperlink ref="A19" r:id="rId21"/>
+    <hyperlink ref="B19" r:id="rId22"/>
+    <hyperlink ref="A21" r:id="rId23"/>
+    <hyperlink ref="B21" r:id="rId24"/>
+    <hyperlink ref="A23" r:id="rId25"/>
+    <hyperlink ref="B23" r:id="rId26"/>
+    <hyperlink ref="A25" r:id="rId27"/>
+    <hyperlink ref="B25" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2453,52 +2512,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>12</v>
@@ -2506,46 +2565,46 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="N2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/excel_reports/Rebecca_Sublette.xlsx
+++ b/excel_reports/Rebecca_Sublette.xlsx
@@ -9,15 +9,16 @@
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Last Month NEW" sheetId="2" r:id="rId2"/>
-    <sheet name="Core" sheetId="3" r:id="rId3"/>
-    <sheet name="Dvh" sheetId="4" r:id="rId4"/>
+    <sheet name="Last Month CANCEL" sheetId="3" r:id="rId3"/>
+    <sheet name="Core" sheetId="4" r:id="rId4"/>
+    <sheet name="Dvh" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="263">
   <si>
     <t>Policy Record</t>
   </si>
@@ -58,6 +59,54 @@
     <t>Cancellation Notes</t>
   </si>
   <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3168241175</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/258601</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Duran</t>
+  </si>
+  <si>
+    <t>AARP/UHC</t>
+  </si>
+  <si>
+    <t>200 - Issued</t>
+  </si>
+  <si>
+    <t>Advantage</t>
+  </si>
+  <si>
+    <t>11-18-2020</t>
+  </si>
+  <si>
+    <t>12-01-2020</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3953416210</t>
+  </si>
+  <si>
+    <t>AARP</t>
+  </si>
+  <si>
+    <t>500 - Cancelled</t>
+  </si>
+  <si>
+    <t>Supplemental</t>
+  </si>
+  <si>
+    <t>11-15-2022</t>
+  </si>
+  <si>
+    <t>01-01-2023</t>
+  </si>
+  <si>
+    <t>11-17-2022</t>
+  </si>
+  <si>
     <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3166973830</t>
   </si>
   <si>
@@ -70,15 +119,9 @@
     <t>Kilpatrick</t>
   </si>
   <si>
-    <t>AARP/UHC</t>
-  </si>
-  <si>
     <t>480 - Cancelled</t>
   </si>
   <si>
-    <t>Advantage</t>
-  </si>
-  <si>
     <t>12-01-2021</t>
   </si>
   <si>
@@ -91,19 +134,43 @@
     <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3929696159</t>
   </si>
   <si>
-    <t>AARP</t>
-  </si>
-  <si>
-    <t>200 - Issued</t>
-  </si>
-  <si>
-    <t>Supplemental</t>
-  </si>
-  <si>
     <t>11-16-2022</t>
   </si>
   <si>
-    <t>01-01-2023</t>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3173208106</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/15152201</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>A03540153</t>
+  </si>
+  <si>
+    <t>510 - Cancelled</t>
+  </si>
+  <si>
+    <t>05-04-2022</t>
+  </si>
+  <si>
+    <t>08-01-2022</t>
+  </si>
+  <si>
+    <t>11-30-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3969119617</t>
+  </si>
+  <si>
+    <t>11-18-2022</t>
+  </si>
+  <si>
+    <t>12-01-2022</t>
   </si>
   <si>
     <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3168673630</t>
@@ -130,6 +197,66 @@
     <t>11-21-2022</t>
   </si>
   <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3168411502</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/43451</t>
+  </si>
+  <si>
+    <t>Alain</t>
+  </si>
+  <si>
+    <t>Deroulette</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4045572982</t>
+  </si>
+  <si>
+    <t>AETNA</t>
+  </si>
+  <si>
+    <t>AHC6670701</t>
+  </si>
+  <si>
+    <t>11-22-2022</t>
+  </si>
+  <si>
+    <t>12-09-2022</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/3173116928</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/6820651</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Eaton</t>
+  </si>
+  <si>
+    <t>AHC6555134</t>
+  </si>
+  <si>
+    <t>10-05-2021</t>
+  </si>
+  <si>
+    <t>11-01-2021</t>
+  </si>
+  <si>
+    <t>10-27-2021</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4053654961</t>
+  </si>
+  <si>
+    <t>AARP / UHICA</t>
+  </si>
+  <si>
     <t>https://app.hubspot.com/contacts/7879306/record/2-8483761/4200350046</t>
   </si>
   <si>
@@ -160,15 +287,32 @@
     <t>HUMANA</t>
   </si>
   <si>
-    <t>12-01-2020</t>
-  </si>
-  <si>
     <t>03-01-2021</t>
   </si>
   <si>
     <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/4202695493</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Note: These are not all chargebacks. Some likely are, some likely aren't. We DO NOT add up your sales and then subtract the cancelations listed below.  Instead, we calculate your commission report based upon "Net New" Active clients.  This sheet is a reference only so you can see a list of all policies that were updated to a "canceled" status during the last month.
+</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/record/2-7775359/3618387037</t>
+  </si>
+  <si>
+    <t>https://app.hubspot.com/contacts/7879306/contact/24044401</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Ochsner</t>
+  </si>
+  <si>
+    <t>11-01-2022</t>
+  </si>
+  <si>
     <t>Contact Record</t>
   </si>
   <si>
@@ -259,6 +403,78 @@
     <t>False</t>
   </si>
   <si>
+    <t>4366964484</t>
+  </si>
+  <si>
+    <t>7736351</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Conlon</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
+    <t>Scalzo</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>3168411502</t>
+  </si>
+  <si>
+    <t>43451</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Hardin</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Walgreens</t>
+  </si>
+  <si>
+    <t>4045572982</t>
+  </si>
+  <si>
+    <t>3168241175</t>
+  </si>
+  <si>
+    <t>258601</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>AARP Medicare Advantage Choice PPO</t>
+  </si>
+  <si>
+    <t>3953416210</t>
+  </si>
+  <si>
+    <t>3173116928</t>
+  </si>
+  <si>
+    <t>6820651</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Oberle</t>
+  </si>
+  <si>
+    <t>4053654961</t>
+  </si>
+  <si>
     <t>4286117152</t>
   </si>
   <si>
@@ -274,9 +490,6 @@
     <t>12-03-2022</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>3166973830</t>
   </si>
   <si>
@@ -316,6 +529,18 @@
     <t>25177651</t>
   </si>
   <si>
+    <t>3173208106</t>
+  </si>
+  <si>
+    <t>15152201</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>3969119617</t>
+  </si>
+  <si>
     <t>3168673630</t>
   </si>
   <si>
@@ -340,9 +565,6 @@
     <t>O'Brien</t>
   </si>
   <si>
-    <t>12-01-2022</t>
-  </si>
-  <si>
     <t>4343157005</t>
   </si>
   <si>
@@ -394,6 +616,15 @@
     <t>AARP Medicare Advantage Choice (PPO)</t>
   </si>
   <si>
+    <t>3618387037</t>
+  </si>
+  <si>
+    <t>24044401</t>
+  </si>
+  <si>
+    <t>Aetna Medicare Assure Premier Prime (HMO D-SNP)</t>
+  </si>
+  <si>
     <t>4360850302</t>
   </si>
   <si>
@@ -433,12 +664,6 @@
     <t>Lewis</t>
   </si>
   <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
     <t>01-30-2023</t>
   </si>
   <si>
@@ -475,12 +700,6 @@
     <t>Musick</t>
   </si>
   <si>
-    <t>11-17-2022</t>
-  </si>
-  <si>
-    <t>11-18-2022</t>
-  </si>
-  <si>
     <t>3904280212</t>
   </si>
   <si>
@@ -496,9 +715,6 @@
     <t>PrimeStar® Value</t>
   </si>
   <si>
-    <t>11-15-2022</t>
-  </si>
-  <si>
     <t>Core Plans Summary</t>
   </si>
   <si>
@@ -508,10 +724,13 @@
     <t>Current Month Active</t>
   </si>
   <si>
-    <t>Lifetime Cancels (12+ Month Duration)</t>
-  </si>
-  <si>
-    <t>(These plans are added back into Current Month Total Active)</t>
+    <t>Past Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>(Any new long-term cancels are added back into Current Month Total Active)</t>
   </si>
   <si>
     <t>Net New Active</t>
@@ -553,13 +772,16 @@
     <t>Ancillary Plans</t>
   </si>
   <si>
-    <t>Previous Active DVH Plans:</t>
+    <t>Past Active DVH Plans:</t>
   </si>
   <si>
     <t>Current Active DVH Plans:</t>
   </si>
   <si>
-    <t>DVH Lifetime Cancels (12+ Month Duration)</t>
+    <t>Previous DVH Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current DVH Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New DVH Plans:</t>
@@ -574,7 +796,10 @@
     <t>Current Active Copay Plans:</t>
   </si>
   <si>
-    <t>Copay Lifetime Cancels (12+ Month Duration)</t>
+    <t>Past Copay Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Copay Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New Copay Plans:</t>
@@ -583,7 +808,7 @@
     <t>Copay - Commission:</t>
   </si>
   <si>
-    <t>1</t>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -658,7 +883,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -681,6 +906,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -981,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,110 +1221,122 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="4">
-        <f>B3+B4-B2</f>
+      <c r="A5" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="2">
         <v>0</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-30</v>
+      <c r="A6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="4">
+        <f>-B2+B3-B4+B5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="B7" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="4">
-        <f>SUM(B5:B7)</f>
-        <v>0</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="5">
-        <f>MAX(0, B8*150)</f>
+        <v>241</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUM(B6:B8)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>172</v>
+      <c r="C9" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="5">
+        <f>MAX(0, B9*150)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
+      <c r="A12" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -1105,12 +1345,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1118,7 +1358,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1126,7 +1366,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1134,55 +1374,67 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23">
-        <f>-B20+B21+B22</f>
+        <v>253</v>
+      </c>
+      <c r="B23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" s="5">
-        <f>B23*50</f>
+      <c r="A24" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24">
+        <f>-B20+B21-B22+B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B24*50</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B29">
-        <f>-B26+B27+B28</f>
+        <v>259</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30">
+        <f>-B26+B27-B28+B29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="5">
-        <f>B29*100</f>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" s="5">
+        <f>B30*100</f>
         <v>0</v>
       </c>
     </row>
@@ -1193,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1273,17 +1525,13 @@
       <c r="J2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>14</v>
@@ -1295,23 +1543,27 @@
         <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
     <row r="5" spans="1:13">
@@ -1332,24 +1584,28 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>30</v>
@@ -1361,20 +1617,20 @@
         <v>32</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -1382,102 +1638,384 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1491,10 +2029,26 @@
     <hyperlink ref="B6" r:id="rId8"/>
     <hyperlink ref="A8" r:id="rId9"/>
     <hyperlink ref="B8" r:id="rId10"/>
-    <hyperlink ref="A10" r:id="rId11"/>
-    <hyperlink ref="B10" r:id="rId12"/>
+    <hyperlink ref="A9" r:id="rId11"/>
+    <hyperlink ref="B9" r:id="rId12"/>
     <hyperlink ref="A11" r:id="rId13"/>
     <hyperlink ref="B11" r:id="rId14"/>
+    <hyperlink ref="A12" r:id="rId15"/>
+    <hyperlink ref="B12" r:id="rId16"/>
+    <hyperlink ref="A14" r:id="rId17"/>
+    <hyperlink ref="B14" r:id="rId18"/>
+    <hyperlink ref="A15" r:id="rId19"/>
+    <hyperlink ref="B15" r:id="rId20"/>
+    <hyperlink ref="A17" r:id="rId21"/>
+    <hyperlink ref="B17" r:id="rId22"/>
+    <hyperlink ref="A18" r:id="rId23"/>
+    <hyperlink ref="B18" r:id="rId24"/>
+    <hyperlink ref="A20" r:id="rId25"/>
+    <hyperlink ref="B20" r:id="rId26"/>
+    <hyperlink ref="A22" r:id="rId27"/>
+    <hyperlink ref="B22" r:id="rId28"/>
+    <hyperlink ref="A23" r:id="rId29"/>
+    <hyperlink ref="B23" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1502,223 +2056,558 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="13" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="100" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId8"/>
+    <hyperlink ref="A9" r:id="rId9"/>
+    <hyperlink ref="B9" r:id="rId10"/>
+    <hyperlink ref="A10" r:id="rId11"/>
+    <hyperlink ref="B10" r:id="rId12"/>
+    <hyperlink ref="A12" r:id="rId13"/>
+    <hyperlink ref="B12" r:id="rId14"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
     <col min="17" max="19" width="10.7109375" style="8" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="10" customWidth="1"/>
     <col min="20" max="20" width="14.7109375" style="8" customWidth="1"/>
     <col min="21" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="B1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="M1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>68</v>
+      <c r="S1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="7" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>79</v>
+        <v>126</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="7" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>79</v>
+        <v>133</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="7" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -1727,519 +2616,1052 @@
         <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>79</v>
+        <v>133</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="7" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
       <c r="M7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" t="s">
         <v>27</v>
       </c>
-      <c r="N7" t="s">
-        <v>28</v>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s">
+        <v>47</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>79</v>
+        <v>126</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="7" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="T9" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="N12" t="s">
         <v>75</v>
       </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="O12" t="s">
         <v>76</v>
       </c>
-      <c r="M9" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>79</v>
+      <c r="P12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="7" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="T13" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E17" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>123</v>
+      </c>
+      <c r="M20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" t="s">
+        <v>185</v>
+      </c>
+      <c r="M32" t="s">
+        <v>124</v>
+      </c>
+      <c r="N32" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="J34" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="Q34" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J35" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K35" t="s">
         <v>19</v>
       </c>
-      <c r="L13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="8" t="s">
+      <c r="L35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" t="s">
+        <v>83</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="T35" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="W35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" t="s">
+        <v>124</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" t="s">
-        <v>107</v>
-      </c>
-      <c r="N16" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="s">
-        <v>112</v>
-      </c>
-      <c r="M18" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" t="s">
-        <v>41</v>
-      </c>
-      <c r="N21" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="T21" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="W21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" t="s">
-        <v>77</v>
-      </c>
-      <c r="N23" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>79</v>
+      <c r="N39" t="s">
+        <v>96</v>
+      </c>
+      <c r="O39" t="s">
+        <v>96</v>
+      </c>
+      <c r="P39" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2254,28 +3676,48 @@
     <hyperlink ref="B7" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="B9" r:id="rId10"/>
-    <hyperlink ref="A11" r:id="rId11"/>
-    <hyperlink ref="B11" r:id="rId12"/>
-    <hyperlink ref="A13" r:id="rId13"/>
-    <hyperlink ref="B13" r:id="rId14"/>
-    <hyperlink ref="A14" r:id="rId15"/>
-    <hyperlink ref="B14" r:id="rId16"/>
-    <hyperlink ref="A16" r:id="rId17"/>
-    <hyperlink ref="B16" r:id="rId18"/>
-    <hyperlink ref="A18" r:id="rId19"/>
-    <hyperlink ref="B18" r:id="rId20"/>
-    <hyperlink ref="A20" r:id="rId21"/>
-    <hyperlink ref="B20" r:id="rId22"/>
-    <hyperlink ref="A21" r:id="rId23"/>
-    <hyperlink ref="B21" r:id="rId24"/>
-    <hyperlink ref="A23" r:id="rId25"/>
-    <hyperlink ref="B23" r:id="rId26"/>
+    <hyperlink ref="A10" r:id="rId11"/>
+    <hyperlink ref="B10" r:id="rId12"/>
+    <hyperlink ref="A12" r:id="rId13"/>
+    <hyperlink ref="B12" r:id="rId14"/>
+    <hyperlink ref="A13" r:id="rId15"/>
+    <hyperlink ref="B13" r:id="rId16"/>
+    <hyperlink ref="A15" r:id="rId17"/>
+    <hyperlink ref="B15" r:id="rId18"/>
+    <hyperlink ref="A17" r:id="rId19"/>
+    <hyperlink ref="B17" r:id="rId20"/>
+    <hyperlink ref="A18" r:id="rId21"/>
+    <hyperlink ref="B18" r:id="rId22"/>
+    <hyperlink ref="A20" r:id="rId23"/>
+    <hyperlink ref="B20" r:id="rId24"/>
+    <hyperlink ref="A22" r:id="rId25"/>
+    <hyperlink ref="B22" r:id="rId26"/>
+    <hyperlink ref="A24" r:id="rId27"/>
+    <hyperlink ref="B24" r:id="rId28"/>
+    <hyperlink ref="A25" r:id="rId29"/>
+    <hyperlink ref="B25" r:id="rId30"/>
+    <hyperlink ref="A27" r:id="rId31"/>
+    <hyperlink ref="B27" r:id="rId32"/>
+    <hyperlink ref="A28" r:id="rId33"/>
+    <hyperlink ref="B28" r:id="rId34"/>
+    <hyperlink ref="A30" r:id="rId35"/>
+    <hyperlink ref="B30" r:id="rId36"/>
+    <hyperlink ref="A32" r:id="rId37"/>
+    <hyperlink ref="B32" r:id="rId38"/>
+    <hyperlink ref="A34" r:id="rId39"/>
+    <hyperlink ref="B34" r:id="rId40"/>
+    <hyperlink ref="A35" r:id="rId41"/>
+    <hyperlink ref="B35" r:id="rId42"/>
+    <hyperlink ref="A37" r:id="rId43"/>
+    <hyperlink ref="B37" r:id="rId44"/>
+    <hyperlink ref="A39" r:id="rId45"/>
+    <hyperlink ref="B39" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T10"/>
   <sheetViews>
@@ -2283,289 +3725,289 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
     <col min="17" max="19" width="10.7109375" style="8" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="10" customWidth="1"/>
     <col min="20" max="20" width="14.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="B1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="M1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="K4" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="M4" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="N4" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="I6" s="8" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="K6" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>147</v>
+        <v>221</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
